--- a/dataset/day_5_예제.xlsx
+++ b/dataset/day_5_예제.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>생산공정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +96,158 @@
   </si>
   <si>
     <t>생산량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원재료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CE02001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CE02002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CE02003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CE02004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CE02005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CE02006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CE02007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CE02008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CC03001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CC03002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CC03003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CC03004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170517CC03005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160101CM01001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160101CM01002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160101CM01003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160101CM01004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160101CM01005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170516CC03001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170516CC03002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170516CC03004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170516CC03003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170516CC03005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170518CC03001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170518CC03002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170518CC03003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170518CC03004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170518CC03005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170519CC03001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170519CC03002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170519CC03003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170519CC03004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170519CC03005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -605,12 +758,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E1:E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -619,12 +881,299 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3">
+        <v>187</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5">
+        <v>557</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/dataset/day_5_예제.xlsx
+++ b/dataset/day_5_예제.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11868" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,8 +254,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +307,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,6 +390,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -419,6 +425,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,22 +601,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -637,7 +644,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -651,7 +658,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -665,7 +672,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -679,7 +686,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -693,7 +700,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -707,7 +714,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -721,7 +728,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -735,7 +742,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -757,22 +764,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -786,7 +793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -800,7 +807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -814,7 +821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -828,7 +835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -842,7 +849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -856,7 +863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -864,7 +871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -880,25 +887,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="A11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -924,7 +931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -950,7 +957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -976,7 +983,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1002,7 +1009,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1028,7 +1035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1061,20 +1068,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.796875" customWidth="1"/>
+    <col min="2" max="3" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1085,7 +1092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1118,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1151,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1162,7 +1169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
